--- a/document/项目进度表Excel版.xlsx
+++ b/document/项目进度表Excel版.xlsx
@@ -1,20 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\毕业设计\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="23715" windowHeight="9630"/>
   </bookViews>
   <sheets>
     <sheet name="进度计划" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="124519"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -116,11 +112,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m/d;@"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -404,7 +400,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -447,6 +443,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -456,16 +467,16 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -486,25 +497,13 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -567,7 +566,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -599,10 +598,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -634,7 +632,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -810,261 +807,312 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AH18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P11" sqref="P11"/>
+      <selection pane="bottomLeft" activeCell="AA14" sqref="AA14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="26.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="24" width="4.625" style="1" customWidth="1"/>
-    <col min="25" max="25" width="9" style="1"/>
-    <col min="26" max="26" width="18.375" style="1" customWidth="1"/>
-    <col min="27" max="16384" width="9" style="1"/>
+    <col min="2" max="31" width="4.625" style="1" customWidth="1"/>
+    <col min="32" max="32" width="9" style="1"/>
+    <col min="33" max="33" width="18.375" style="1" customWidth="1"/>
+    <col min="34" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:34" ht="20.25">
+      <c r="A1" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
-      <c r="S1" s="22"/>
-      <c r="T1" s="22"/>
-      <c r="U1" s="22"/>
-      <c r="V1" s="22"/>
-      <c r="W1" s="22"/>
-      <c r="X1" s="22"/>
-      <c r="Y1" s="22"/>
-      <c r="Z1" s="23"/>
-    </row>
-    <row r="2" spans="1:27" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="24" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="27"/>
+      <c r="R1" s="27"/>
+      <c r="S1" s="27"/>
+      <c r="T1" s="27"/>
+      <c r="U1" s="27"/>
+      <c r="V1" s="27"/>
+      <c r="W1" s="27"/>
+      <c r="X1" s="27"/>
+      <c r="Y1" s="27"/>
+      <c r="Z1" s="27"/>
+      <c r="AA1" s="27"/>
+      <c r="AB1" s="27"/>
+      <c r="AC1" s="27"/>
+      <c r="AD1" s="27"/>
+      <c r="AE1" s="27"/>
+      <c r="AF1" s="27"/>
+      <c r="AG1" s="28"/>
+    </row>
+    <row r="2" spans="1:34" ht="21.95" customHeight="1">
+      <c r="A2" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="25"/>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="25"/>
-      <c r="R2" s="25"/>
-      <c r="S2" s="25"/>
-      <c r="T2" s="25"/>
-      <c r="U2" s="25"/>
-      <c r="V2" s="25"/>
-      <c r="W2" s="25"/>
-      <c r="X2" s="25"/>
-      <c r="Y2" s="25"/>
-      <c r="Z2" s="26"/>
-    </row>
-    <row r="3" spans="1:27" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="20" t="s">
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="30"/>
+      <c r="R2" s="30"/>
+      <c r="S2" s="30"/>
+      <c r="T2" s="30"/>
+      <c r="U2" s="30"/>
+      <c r="V2" s="30"/>
+      <c r="W2" s="30"/>
+      <c r="X2" s="30"/>
+      <c r="Y2" s="30"/>
+      <c r="Z2" s="30"/>
+      <c r="AA2" s="30"/>
+      <c r="AB2" s="30"/>
+      <c r="AC2" s="30"/>
+      <c r="AD2" s="30"/>
+      <c r="AE2" s="30"/>
+      <c r="AF2" s="30"/>
+      <c r="AG2" s="31"/>
+    </row>
+    <row r="3" spans="1:34" ht="21.95" customHeight="1">
+      <c r="A3" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16" t="s">
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16" t="s">
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="16"/>
-      <c r="S3" s="16"/>
-      <c r="T3" s="16"/>
-      <c r="U3" s="16"/>
-      <c r="V3" s="16"/>
-      <c r="W3" s="16"/>
-      <c r="X3" s="16"/>
-      <c r="Y3" s="16"/>
-      <c r="Z3" s="17"/>
-    </row>
-    <row r="4" spans="1:27" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="20" t="s">
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="21"/>
+      <c r="S3" s="21"/>
+      <c r="T3" s="21"/>
+      <c r="U3" s="21"/>
+      <c r="V3" s="21"/>
+      <c r="W3" s="21"/>
+      <c r="X3" s="21"/>
+      <c r="Y3" s="21"/>
+      <c r="Z3" s="21"/>
+      <c r="AA3" s="21"/>
+      <c r="AB3" s="21"/>
+      <c r="AC3" s="21"/>
+      <c r="AD3" s="21"/>
+      <c r="AE3" s="21"/>
+      <c r="AF3" s="21"/>
+      <c r="AG3" s="32"/>
+    </row>
+    <row r="4" spans="1:34" ht="21.95" customHeight="1">
+      <c r="A4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16" t="s">
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16" t="s">
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="16"/>
-      <c r="R4" s="16"/>
-      <c r="S4" s="16"/>
-      <c r="T4" s="16"/>
-      <c r="U4" s="16"/>
-      <c r="V4" s="16"/>
-      <c r="W4" s="16"/>
-      <c r="X4" s="16"/>
-      <c r="Y4" s="16"/>
-      <c r="Z4" s="17"/>
-    </row>
-    <row r="5" spans="1:27" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="20" t="s">
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="21"/>
+      <c r="S4" s="21"/>
+      <c r="T4" s="21"/>
+      <c r="U4" s="21"/>
+      <c r="V4" s="21"/>
+      <c r="W4" s="21"/>
+      <c r="X4" s="21"/>
+      <c r="Y4" s="21"/>
+      <c r="Z4" s="21"/>
+      <c r="AA4" s="21"/>
+      <c r="AB4" s="21"/>
+      <c r="AC4" s="21"/>
+      <c r="AD4" s="21"/>
+      <c r="AE4" s="21"/>
+      <c r="AF4" s="21"/>
+      <c r="AG4" s="32"/>
+    </row>
+    <row r="5" spans="1:34" ht="21.95" customHeight="1">
+      <c r="A5" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16" t="s">
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="16"/>
-      <c r="R5" s="18">
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="21"/>
+      <c r="R5" s="33">
         <v>43188</v>
       </c>
-      <c r="S5" s="18"/>
-      <c r="T5" s="18"/>
-      <c r="U5" s="18"/>
-      <c r="V5" s="18"/>
-      <c r="W5" s="18"/>
-      <c r="X5" s="18"/>
-      <c r="Y5" s="18"/>
-      <c r="Z5" s="19"/>
-    </row>
-    <row r="6" spans="1:27" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="24" t="s">
+      <c r="S5" s="33"/>
+      <c r="T5" s="33"/>
+      <c r="U5" s="33"/>
+      <c r="V5" s="33"/>
+      <c r="W5" s="33"/>
+      <c r="X5" s="33"/>
+      <c r="Y5" s="33"/>
+      <c r="Z5" s="33"/>
+      <c r="AA5" s="33"/>
+      <c r="AB5" s="33"/>
+      <c r="AC5" s="33"/>
+      <c r="AD5" s="33"/>
+      <c r="AE5" s="33"/>
+      <c r="AF5" s="33"/>
+      <c r="AG5" s="34"/>
+    </row>
+    <row r="6" spans="1:34" ht="21.95" customHeight="1">
+      <c r="A6" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="25"/>
-      <c r="N6" s="25"/>
-      <c r="O6" s="25"/>
-      <c r="P6" s="25"/>
-      <c r="Q6" s="25"/>
-      <c r="R6" s="25"/>
-      <c r="S6" s="25"/>
-      <c r="T6" s="25"/>
-      <c r="U6" s="25"/>
-      <c r="V6" s="25"/>
-      <c r="W6" s="25"/>
-      <c r="X6" s="25"/>
-      <c r="Y6" s="25"/>
-      <c r="Z6" s="26"/>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="30"/>
+      <c r="Q6" s="30"/>
+      <c r="R6" s="30"/>
+      <c r="S6" s="30"/>
+      <c r="T6" s="30"/>
+      <c r="U6" s="30"/>
+      <c r="V6" s="30"/>
+      <c r="W6" s="30"/>
+      <c r="X6" s="30"/>
+      <c r="Y6" s="30"/>
+      <c r="Z6" s="30"/>
+      <c r="AA6" s="30"/>
+      <c r="AB6" s="30"/>
+      <c r="AC6" s="30"/>
+      <c r="AD6" s="30"/>
+      <c r="AE6" s="30"/>
+      <c r="AF6" s="30"/>
+      <c r="AG6" s="31"/>
+    </row>
+    <row r="7" spans="1:34">
       <c r="A7" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="14" t="s">
         <v>20</v>
       </c>
       <c r="C7" s="5">
         <v>0</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="20">
         <v>1</v>
       </c>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15">
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20">
         <v>2</v>
       </c>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15"/>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="27">
+      <c r="L7" s="20"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="20"/>
+      <c r="O7" s="20"/>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="20"/>
+      <c r="R7" s="23">
         <v>3</v>
       </c>
-      <c r="S7" s="28"/>
-      <c r="T7" s="28"/>
-      <c r="U7" s="28"/>
-      <c r="V7" s="28"/>
-      <c r="W7" s="28"/>
-      <c r="X7" s="29"/>
-      <c r="Y7" s="13"/>
-      <c r="Z7" s="5"/>
-      <c r="AA7" s="11"/>
-    </row>
-    <row r="8" spans="1:27" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S7" s="24"/>
+      <c r="T7" s="24"/>
+      <c r="U7" s="24"/>
+      <c r="V7" s="24"/>
+      <c r="W7" s="24"/>
+      <c r="X7" s="25"/>
+      <c r="Y7" s="23">
+        <v>4</v>
+      </c>
+      <c r="Z7" s="24"/>
+      <c r="AA7" s="24"/>
+      <c r="AB7" s="24"/>
+      <c r="AC7" s="24"/>
+      <c r="AD7" s="24"/>
+      <c r="AE7" s="25"/>
+      <c r="AF7" s="13"/>
+      <c r="AG7" s="5"/>
+      <c r="AH7" s="11"/>
+    </row>
+    <row r="8" spans="1:34" ht="32.25" customHeight="1">
       <c r="A8" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="14" t="s">
         <v>21</v>
       </c>
       <c r="C8" s="12">
@@ -1133,20 +1181,43 @@
       <c r="X8" s="12">
         <v>43218</v>
       </c>
-      <c r="Y8" s="12"/>
-      <c r="Z8" s="5" t="s">
+      <c r="Y8" s="12">
+        <v>43219</v>
+      </c>
+      <c r="Z8" s="12">
+        <v>43220</v>
+      </c>
+      <c r="AA8" s="12">
+        <v>43221</v>
+      </c>
+      <c r="AB8" s="12">
+        <v>43222</v>
+      </c>
+      <c r="AC8" s="12">
+        <v>43223</v>
+      </c>
+      <c r="AD8" s="12">
+        <v>43224</v>
+      </c>
+      <c r="AE8" s="12">
+        <v>43225</v>
+      </c>
+      <c r="AF8" s="12">
+        <v>43240</v>
+      </c>
+      <c r="AG8" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="AA8" s="11" t="s">
+      <c r="AH8" s="11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:27" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:34" ht="21.95" customHeight="1">
       <c r="A9" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="30">
-        <v>6</v>
+      <c r="B9" s="14">
+        <v>16</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
@@ -1154,12 +1225,12 @@
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
       <c r="O9" s="5"/>
       <c r="P9" s="5"/>
       <c r="Q9" s="5"/>
@@ -1170,30 +1241,36 @@
       <c r="V9" s="13"/>
       <c r="W9" s="13"/>
       <c r="X9" s="13"/>
-      <c r="Y9" s="13"/>
-      <c r="Z9" s="5"/>
-      <c r="AA9" s="8"/>
-    </row>
-    <row r="10" spans="1:27" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y9" s="18"/>
+      <c r="Z9" s="18"/>
+      <c r="AA9" s="18"/>
+      <c r="AB9" s="18"/>
+      <c r="AC9" s="18"/>
+      <c r="AD9" s="18"/>
+      <c r="AE9" s="18"/>
+      <c r="AF9" s="13"/>
+      <c r="AG9" s="5"/>
+      <c r="AH9" s="8"/>
+    </row>
+    <row r="10" spans="1:34" ht="21.95" customHeight="1">
       <c r="A10" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="30">
-        <v>3</v>
+      <c r="B10" s="14">
+        <v>7</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="6"/>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="18"/>
       <c r="P10" s="5"/>
       <c r="Q10" s="5"/>
       <c r="R10" s="5"/>
@@ -1203,29 +1280,36 @@
       <c r="V10" s="13"/>
       <c r="W10" s="13"/>
       <c r="X10" s="13"/>
-      <c r="Y10" s="13"/>
-      <c r="Z10" s="5"/>
-      <c r="AA10" s="14"/>
-    </row>
-    <row r="11" spans="1:27" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y10" s="18"/>
+      <c r="Z10" s="18"/>
+      <c r="AA10" s="18"/>
+      <c r="AB10" s="18"/>
+      <c r="AC10" s="18"/>
+      <c r="AD10" s="18"/>
+      <c r="AE10" s="18"/>
+      <c r="AF10" s="13"/>
+      <c r="AG10" s="5"/>
+      <c r="AH10" s="19"/>
+    </row>
+    <row r="11" spans="1:34" ht="21.95" customHeight="1">
       <c r="A11" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="30">
-        <v>6</v>
+      <c r="B11" s="14">
+        <v>3</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
       <c r="L11" s="9"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
       <c r="O11" s="5"/>
       <c r="P11" s="5"/>
       <c r="Q11" s="5"/>
@@ -1236,16 +1320,23 @@
       <c r="V11" s="13"/>
       <c r="W11" s="13"/>
       <c r="X11" s="13"/>
-      <c r="Y11" s="13"/>
-      <c r="Z11" s="5"/>
-      <c r="AA11" s="14"/>
-    </row>
-    <row r="12" spans="1:27" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y11" s="18"/>
+      <c r="Z11" s="18"/>
+      <c r="AA11" s="18"/>
+      <c r="AB11" s="18"/>
+      <c r="AC11" s="18"/>
+      <c r="AD11" s="18"/>
+      <c r="AE11" s="18"/>
+      <c r="AF11" s="13"/>
+      <c r="AG11" s="5"/>
+      <c r="AH11" s="19"/>
+    </row>
+    <row r="12" spans="1:34" ht="21.95" customHeight="1">
       <c r="A12" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="30">
-        <v>14</v>
+      <c r="B12" s="14">
+        <v>20</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -1253,31 +1344,38 @@
       <c r="F12" s="5"/>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="33"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
       <c r="N12" s="9"/>
       <c r="O12" s="9"/>
-      <c r="P12" s="33"/>
+      <c r="P12" s="17"/>
       <c r="Q12" s="9"/>
       <c r="R12" s="9"/>
-      <c r="S12" s="33"/>
+      <c r="S12" s="17"/>
       <c r="T12" s="9"/>
-      <c r="U12" s="5"/>
-      <c r="V12" s="13"/>
-      <c r="W12" s="13"/>
-      <c r="X12" s="13"/>
-      <c r="Y12" s="13"/>
-      <c r="Z12" s="5"/>
-      <c r="AA12" s="14"/>
-    </row>
-    <row r="13" spans="1:27" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U12" s="9"/>
+      <c r="V12" s="9"/>
+      <c r="W12" s="9"/>
+      <c r="X12" s="9"/>
+      <c r="Y12" s="9"/>
+      <c r="Z12" s="9"/>
+      <c r="AA12" s="9"/>
+      <c r="AB12" s="9"/>
+      <c r="AC12" s="9"/>
+      <c r="AD12" s="9"/>
+      <c r="AE12" s="9"/>
+      <c r="AF12" s="9"/>
+      <c r="AG12" s="5"/>
+      <c r="AH12" s="19"/>
+    </row>
+    <row r="13" spans="1:34" ht="21.95" customHeight="1">
       <c r="A13" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="30">
+      <c r="B13" s="14">
         <v>4</v>
       </c>
       <c r="C13" s="5"/>
@@ -1298,19 +1396,26 @@
       <c r="R13" s="5"/>
       <c r="S13" s="9"/>
       <c r="T13" s="5"/>
-      <c r="U13" s="33"/>
+      <c r="U13" s="17"/>
       <c r="V13" s="13"/>
       <c r="W13" s="13"/>
       <c r="X13" s="13"/>
-      <c r="Y13" s="13"/>
-      <c r="Z13" s="5"/>
-      <c r="AA13" s="14"/>
-    </row>
-    <row r="14" spans="1:27" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y13" s="17"/>
+      <c r="Z13" s="18"/>
+      <c r="AA13" s="18"/>
+      <c r="AB13" s="18"/>
+      <c r="AC13" s="17"/>
+      <c r="AD13" s="18"/>
+      <c r="AE13" s="18"/>
+      <c r="AF13" s="17"/>
+      <c r="AG13" s="5"/>
+      <c r="AH13" s="19"/>
+    </row>
+    <row r="14" spans="1:34" ht="21.95" customHeight="1">
       <c r="A14" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="30">
+      <c r="B14" s="14">
         <v>2</v>
       </c>
       <c r="C14" s="5"/>
@@ -1334,13 +1439,20 @@
       <c r="V14" s="9"/>
       <c r="W14" s="13"/>
       <c r="X14" s="13"/>
-      <c r="Y14" s="13"/>
-      <c r="Z14" s="5"/>
-      <c r="AA14" s="8"/>
-    </row>
-    <row r="15" spans="1:27" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y14" s="18"/>
+      <c r="Z14" s="18"/>
+      <c r="AA14" s="18"/>
+      <c r="AB14" s="18"/>
+      <c r="AC14" s="18"/>
+      <c r="AD14" s="18"/>
+      <c r="AE14" s="18"/>
+      <c r="AF14" s="13"/>
+      <c r="AG14" s="5"/>
+      <c r="AH14" s="8"/>
+    </row>
+    <row r="15" spans="1:34" ht="21.95" customHeight="1">
       <c r="A15" s="7"/>
-      <c r="B15" s="31"/>
+      <c r="B15" s="15"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
@@ -1363,13 +1475,20 @@
       <c r="V15" s="13"/>
       <c r="W15" s="13"/>
       <c r="X15" s="13"/>
-      <c r="Y15" s="13"/>
-      <c r="Z15" s="5"/>
-      <c r="AA15" s="14"/>
-    </row>
-    <row r="16" spans="1:27" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y15" s="18"/>
+      <c r="Z15" s="18"/>
+      <c r="AA15" s="18"/>
+      <c r="AB15" s="18"/>
+      <c r="AC15" s="18"/>
+      <c r="AD15" s="18"/>
+      <c r="AE15" s="18"/>
+      <c r="AF15" s="13"/>
+      <c r="AG15" s="5"/>
+      <c r="AH15" s="19"/>
+    </row>
+    <row r="16" spans="1:34" ht="21.95" customHeight="1">
       <c r="A16" s="7"/>
-      <c r="B16" s="31"/>
+      <c r="B16" s="15"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
@@ -1392,13 +1511,20 @@
       <c r="V16" s="13"/>
       <c r="W16" s="13"/>
       <c r="X16" s="13"/>
-      <c r="Y16" s="13"/>
-      <c r="Z16" s="5"/>
-      <c r="AA16" s="14"/>
-    </row>
-    <row r="17" spans="1:27" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y16" s="18"/>
+      <c r="Z16" s="18"/>
+      <c r="AA16" s="18"/>
+      <c r="AB16" s="18"/>
+      <c r="AC16" s="18"/>
+      <c r="AD16" s="18"/>
+      <c r="AE16" s="18"/>
+      <c r="AF16" s="13"/>
+      <c r="AG16" s="5"/>
+      <c r="AH16" s="19"/>
+    </row>
+    <row r="17" spans="1:34" ht="21.95" customHeight="1">
       <c r="A17" s="7"/>
-      <c r="B17" s="31"/>
+      <c r="B17" s="15"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
@@ -1421,13 +1547,20 @@
       <c r="V17" s="13"/>
       <c r="W17" s="13"/>
       <c r="X17" s="13"/>
-      <c r="Y17" s="13"/>
-      <c r="Z17" s="5"/>
-      <c r="AA17" s="14"/>
-    </row>
-    <row r="18" spans="1:27" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="Y17" s="18"/>
+      <c r="Z17" s="18"/>
+      <c r="AA17" s="18"/>
+      <c r="AB17" s="18"/>
+      <c r="AC17" s="18"/>
+      <c r="AD17" s="18"/>
+      <c r="AE17" s="18"/>
+      <c r="AF17" s="13"/>
+      <c r="AG17" s="5"/>
+      <c r="AH17" s="19"/>
+    </row>
+    <row r="18" spans="1:34" ht="21.95" customHeight="1" thickBot="1">
       <c r="A18" s="4"/>
-      <c r="B18" s="32"/>
+      <c r="B18" s="16"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
@@ -1452,31 +1585,39 @@
       <c r="X18" s="3"/>
       <c r="Y18" s="3"/>
       <c r="Z18" s="3"/>
-      <c r="AA18" s="2"/>
+      <c r="AA18" s="3"/>
+      <c r="AB18" s="3"/>
+      <c r="AC18" s="3"/>
+      <c r="AD18" s="3"/>
+      <c r="AE18" s="3"/>
+      <c r="AF18" s="3"/>
+      <c r="AG18" s="3"/>
+      <c r="AH18" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="A1:Z1"/>
-    <mergeCell ref="A2:Z2"/>
-    <mergeCell ref="A6:Z6"/>
-    <mergeCell ref="R3:Z3"/>
+  <mergeCells count="22">
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="F3:K3"/>
+    <mergeCell ref="R7:X7"/>
+    <mergeCell ref="A1:AG1"/>
+    <mergeCell ref="A2:AG2"/>
+    <mergeCell ref="A6:AG6"/>
+    <mergeCell ref="R3:AG3"/>
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="A5:E5"/>
     <mergeCell ref="L3:Q3"/>
     <mergeCell ref="L4:Q4"/>
     <mergeCell ref="L5:Q5"/>
     <mergeCell ref="F4:K4"/>
-    <mergeCell ref="R4:Z4"/>
-    <mergeCell ref="R5:Z5"/>
-    <mergeCell ref="AA10:AA11"/>
-    <mergeCell ref="AA12:AA13"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="F3:K3"/>
-    <mergeCell ref="R7:X7"/>
-    <mergeCell ref="AA15:AA17"/>
+    <mergeCell ref="R4:AG4"/>
+    <mergeCell ref="R5:AG5"/>
+    <mergeCell ref="Y7:AE7"/>
+    <mergeCell ref="AH15:AH17"/>
     <mergeCell ref="D7:J7"/>
     <mergeCell ref="K7:Q7"/>
     <mergeCell ref="F5:K5"/>
+    <mergeCell ref="AH10:AH11"/>
+    <mergeCell ref="AH12:AH13"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
